--- a/HHS Operations/Templates/Template_DailyInput.xlsx
+++ b/HHS Operations/Templates/Template_DailyInput.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="123">
   <si>
     <t xml:space="preserve">HHS Job Number</t>
   </si>
@@ -46,7 +46,10 @@
     <t xml:space="preserve">HXXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">(Date)</t>
+    <t xml:space="preserve">(Month)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Day)</t>
   </si>
   <si>
     <t xml:space="preserve">Product Type</t>
@@ -412,7 +415,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="MMM\ DD"/>
+    <numFmt numFmtId="165" formatCode="mmm\ dd"/>
     <numFmt numFmtId="166" formatCode="\$#,##0.00_);&quot;($&quot;#,##0.00\)"/>
     <numFmt numFmtId="167" formatCode="_(\$* #,##0.00_);_(\$* \(#,##0.00\);_(\$* \-??_);_(@_)"/>
   </numFmts>
@@ -660,23 +663,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E115"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D99" activeCellId="0" sqref="D99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="55.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.12"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -711,34 +713,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7" t="n">
         <v>175</v>
@@ -751,10 +758,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7" t="n">
         <v>48</v>
@@ -767,10 +774,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="n">
         <v>27</v>
@@ -783,10 +790,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" s="7" t="n">
         <v>35</v>
@@ -799,10 +806,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="7" t="n">
         <v>125</v>
@@ -815,10 +822,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="n">
         <v>64</v>
@@ -831,10 +838,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="7" t="n">
         <v>2.1</v>
@@ -847,10 +854,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="7" t="n">
         <v>2.75</v>
@@ -863,10 +870,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16" s="7" t="n">
         <v>65.6</v>
@@ -879,10 +886,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="7" t="n">
         <v>0.98</v>
@@ -895,10 +902,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="7" t="n">
         <v>20</v>
@@ -911,10 +918,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7" t="n">
         <v>750</v>
@@ -927,10 +934,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" s="7" t="n">
         <v>250</v>
@@ -943,10 +950,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C21" s="7" t="n">
         <v>650</v>
@@ -959,10 +966,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="7" t="n">
         <v>1750</v>
@@ -975,10 +982,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="7" t="n">
         <v>1.15</v>
@@ -991,10 +998,10 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="7" t="n">
         <v>1.5</v>
@@ -1007,10 +1014,10 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="7" t="n">
         <v>2.25</v>
@@ -1023,10 +1030,10 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="7" t="n">
         <v>2.25</v>
@@ -1039,10 +1046,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="7" t="n">
         <v>2.6</v>
@@ -1055,10 +1062,10 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28" s="7" t="n">
         <v>2.75</v>
@@ -1071,10 +1078,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29" s="7" t="n">
         <v>1.25</v>
@@ -1087,10 +1094,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C30" s="7" t="n">
         <v>1.4</v>
@@ -1103,10 +1110,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C31" s="7" t="n">
         <v>1020</v>
@@ -1119,10 +1126,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C32" s="7" t="n">
         <v>761</v>
@@ -1135,10 +1142,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C33" s="7" t="n">
         <v>125</v>
@@ -1151,10 +1158,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C34" s="7" t="n">
         <v>2.65</v>
@@ -1167,10 +1174,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="7" t="n">
         <v>0.98</v>
@@ -1183,10 +1190,10 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C36" s="7" t="n">
         <v>37</v>
@@ -1199,10 +1206,10 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="7" t="n">
         <v>1.96</v>
@@ -1215,10 +1222,10 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C38" s="7" t="n">
         <v>225</v>
@@ -1231,10 +1238,10 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8"/>
@@ -1245,10 +1252,10 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C40" s="7" t="n">
         <v>650</v>
@@ -1261,10 +1268,10 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="7" t="n">
         <v>250</v>
@@ -1277,10 +1284,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="8"/>
@@ -1291,10 +1298,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C43" s="7" t="n">
         <v>125</v>
@@ -1307,10 +1314,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C44" s="7" t="n">
         <v>1.9</v>
@@ -1323,10 +1330,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C45" s="7" t="n">
         <v>190</v>
@@ -1339,10 +1346,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C46" s="7" t="n">
         <v>1.25</v>
@@ -1355,10 +1362,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47" s="7" t="n">
         <v>2.1</v>
@@ -1371,10 +1378,10 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="7" t="n">
         <v>211</v>
@@ -1387,10 +1394,10 @@
     </row>
     <row r="49" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C49" s="7" t="n">
         <v>43.56</v>
@@ -1403,10 +1410,10 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="8"/>
@@ -1417,10 +1424,10 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C51" s="7" t="n">
         <v>15</v>
@@ -1433,10 +1440,10 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C52" s="7" t="n">
         <v>1.15</v>
@@ -1449,10 +1456,10 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="8"/>
@@ -1463,10 +1470,10 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C54" s="7" t="n">
         <v>225</v>
@@ -1479,10 +1486,10 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C55" s="7" t="n">
         <v>15</v>
@@ -1495,10 +1502,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C56" s="7" t="n">
         <v>11</v>
@@ -1511,10 +1518,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C57" s="7" t="n">
         <v>27</v>
@@ -1527,10 +1534,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C58" s="7" t="n">
         <v>1450</v>
@@ -1543,10 +1550,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C59" s="7" t="n">
         <v>2142</v>
@@ -1559,10 +1566,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60" s="7" t="n">
         <v>0.12</v>
@@ -1575,10 +1582,10 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C61" s="7" t="n">
         <v>2</v>
@@ -1591,10 +1598,10 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C62" s="7" t="n">
         <v>1.9</v>
@@ -1607,10 +1614,10 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C63" s="7" t="n">
         <v>3</v>
@@ -1623,10 +1630,10 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C64" s="7" t="n">
         <v>2</v>
@@ -1639,10 +1646,10 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C65" s="7" t="n">
         <v>62.5</v>
@@ -1655,10 +1662,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C66" s="7" t="n">
         <v>1.1</v>
@@ -1671,10 +1678,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C67" s="7" t="n">
         <v>110</v>
@@ -1687,10 +1694,10 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C68" s="7" t="n">
         <v>5.1</v>
@@ -1703,10 +1710,10 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C69" s="7" t="n">
         <v>150</v>
@@ -1719,10 +1726,10 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C70" s="7" t="n">
         <v>310</v>
@@ -1735,10 +1742,10 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" s="7" t="n">
         <v>310</v>
@@ -1751,10 +1758,10 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C72" s="7" t="n">
         <v>1.85</v>
@@ -1767,10 +1774,10 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C73" s="7" t="n">
         <v>275</v>
@@ -1783,10 +1790,10 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C74" s="7" t="n">
         <v>195</v>
@@ -1799,10 +1806,10 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C75" s="7" t="n">
         <v>210</v>
@@ -1815,10 +1822,10 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C76" s="7" t="n">
         <v>310</v>
@@ -1831,10 +1838,10 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="7" t="n">
         <v>455</v>
@@ -1847,10 +1854,10 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C78" s="7" t="n">
         <v>225</v>
@@ -1863,10 +1870,10 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C79" s="7" t="n">
         <v>245</v>
@@ -1879,10 +1886,10 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" s="7" t="n">
         <v>355</v>
@@ -1895,10 +1902,10 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C81" s="7" t="n">
         <v>510</v>
@@ -1911,10 +1918,10 @@
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82" s="7" t="n">
         <v>510</v>
@@ -1927,10 +1934,10 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="7" t="n">
         <v>28</v>
@@ -1943,10 +1950,10 @@
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C84" s="7" t="n">
         <v>70</v>
@@ -1959,10 +1966,10 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="7" t="n">
         <v>155</v>
@@ -1975,10 +1982,10 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="7" t="n">
         <v>28</v>
@@ -1991,10 +1998,10 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C87" s="7" t="n">
         <v>70</v>
@@ -2007,10 +2014,10 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C88" s="7" t="n">
         <v>155</v>
@@ -2023,10 +2030,10 @@
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C89" s="7" t="n">
         <v>1.95</v>
@@ -2039,10 +2046,10 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C90" s="7" t="n">
         <v>22</v>
@@ -2055,10 +2062,10 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C91" s="7" t="n">
         <v>2.75</v>
@@ -2071,10 +2078,10 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C92" s="7" t="n">
         <v>565</v>
@@ -2087,10 +2094,10 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C93" s="7" t="n">
         <v>3.45</v>
@@ -2103,10 +2110,10 @@
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C94" s="7" t="n">
         <v>22</v>
@@ -2119,10 +2126,10 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C95" s="7" t="n">
         <v>600</v>
@@ -2135,10 +2142,10 @@
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C96" s="7" t="n">
         <f aca="false">C95*3</f>
@@ -2152,7 +2159,7 @@
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D97" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2163,10 +2170,10 @@
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2215,7 +2222,7 @@
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2234,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/HHS Operations/Templates/Template_DailyInput.xlsx
+++ b/HHS Operations/Templates/Template_DailyInput.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">63-XXXXX</t>
   </si>
   <si>
-    <t xml:space="preserve">Infinium Number</t>
+    <t xml:space="preserve">Customer PO</t>
   </si>
   <si>
     <t xml:space="preserve">55XXXXX</t>
@@ -670,7 +670,7 @@
   <dimension ref="A1:E115"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="H33" activeCellId="0" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
